--- a/Addl/PowerBudgeting.xlsx
+++ b/Addl/PowerBudgeting.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>sleep</t>
   </si>
@@ -58,14 +58,18 @@
   </si>
   <si>
     <t>active (EPD 2 pages)</t>
+  </si>
+  <si>
+    <t>active (EPD 2 pages, sleep during SCD41 measurement)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0.0\ _€_-;\-* #,##0.0\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -83,7 +87,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -93,6 +97,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -110,11 +126,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Komma" xfId="1" builtinId="3"/>
@@ -417,15 +437,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I12"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.85546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="50.28515625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -450,8 +470,8 @@
       <c r="A2" t="s">
         <v>8</v>
       </c>
-      <c r="C2">
-        <v>120</v>
+      <c r="C2" s="6">
+        <v>180</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -462,12 +482,12 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="C3" s="1">
-        <f>C2-C4</f>
-        <v>105.7</v>
+        <f>C2-C6</f>
+        <v>167.8</v>
       </c>
       <c r="D3" s="1">
         <f>B3*C3</f>
-        <v>29.596000000000004</v>
+        <v>46.984000000000009</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -489,46 +509,65 @@
         <f>B4*C4</f>
         <v>314.60000000000002</v>
       </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
+      <c r="E4" s="3">
+        <f t="shared" ref="E4:E5" si="0">(D4+$D$3)/$C$2</f>
+        <v>2.0088000000000004</v>
+      </c>
+      <c r="F4" s="5">
+        <f t="shared" ref="F4:F6" si="1">2000/E4/24</f>
+        <v>41.484136466215311</v>
+      </c>
       <c r="G4" s="3"/>
       <c r="H4" s="3"/>
       <c r="I4" s="3"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="5" spans="1:9" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B5" s="1">
+      <c r="B5" s="3">
         <v>23.8</v>
       </c>
-      <c r="C5" s="1">
+      <c r="C5" s="3">
         <v>11.5</v>
       </c>
-      <c r="D5" s="1">
+      <c r="D5" s="3">
         <f>B5*C5</f>
         <v>273.7</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
+      <c r="E5" s="3">
+        <f t="shared" si="0"/>
+        <v>1.7815777777777777</v>
+      </c>
+      <c r="F5" s="5">
+        <f t="shared" si="1"/>
+        <v>46.775018398173906</v>
+      </c>
+      <c r="G5" s="3"/>
+      <c r="H5" s="3"/>
+      <c r="I5" s="3"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="1">
+        <v>20</v>
+      </c>
+      <c r="C6" s="1">
+        <v>12.2</v>
+      </c>
       <c r="D6" s="1">
-        <f>D3+D5</f>
-        <v>303.29599999999999</v>
+        <f>B6*C6</f>
+        <v>244</v>
       </c>
       <c r="E6" s="1">
-        <f>D6/C2</f>
-        <v>2.5274666666666668</v>
-      </c>
-      <c r="F6" s="1">
-        <f>2000/E6/24</f>
-        <v>32.97109094745727</v>
+        <f>(D6+$D$3)/$C$2</f>
+        <v>1.6165777777777779</v>
+      </c>
+      <c r="F6" s="7">
+        <f t="shared" si="1"/>
+        <v>51.549226074285862</v>
       </c>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
@@ -539,32 +578,42 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
+      <c r="F7" s="4"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>1</v>
-      </c>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+      <c r="I8" s="1"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>4</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>5</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <f>296/3.2</f>
         <v>92.5</v>
       </c>
